--- a/测试表格.xlsx
+++ b/测试表格.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learning\tempFiller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AEB2ED-F4B0-4396-A131-3337186B733A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41121810-62C8-4772-B169-B72546793933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>关键词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,14 @@
   </si>
   <si>
     <t>关键词排列可乱序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【替换9】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,7 +522,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -644,6 +652,14 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E15" s="2" t="s">

--- a/测试表格.xlsx
+++ b/测试表格.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learning\tempFiller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41121810-62C8-4772-B169-B72546793933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AD9CA6-74A0-4988-B576-2845CFD3A4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -522,7 +522,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/测试表格.xlsx
+++ b/测试表格.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learning\tempFiller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AD9CA6-74A0-4988-B576-2845CFD3A4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837ADFCF-2F06-4515-8EBC-B20CD000D995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -522,7 +522,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E28" sqref="E28:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
